--- a/code/java-web-demo/src/test/resources/明协公司.xlsx
+++ b/code/java-web-demo/src/test/resources/明协公司.xlsx
@@ -9,22 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="7" r:id="rId1"/>
-    <sheet name="现金" sheetId="9" r:id="rId2"/>
+    <sheet name="现金" sheetId="9" r:id="rId1"/>
+    <sheet name="汇总" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">汇总!$A$1:$H$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">现金!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总!$A$1:$H$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">现金!$A$1:$F$131</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>日期</t>
   </si>
@@ -303,23 +303,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>应收68638.14，实收76661.99</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>收钢材款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收油漆款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -782,6 +770,1458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
+        <f>C2-D2</f>
+        <v>30000</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7">
+        <v>39000</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E39" si="0">E2+C3-D3</f>
+        <v>69000</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>42816</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>89000</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>42826</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>99000</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>42838</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7">
+        <v>191986.15</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>290986.15000000002</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>42817</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7">
+        <v>400000</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>690986.15</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>42894</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7">
+        <v>64863.5</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>755849.65</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>42836</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>4032</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>751817.65</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>748117.65</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>100</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>748017.65</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>42844</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>718017.65</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>42845</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>3600</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>714417.65</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>42850</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>1106</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>713311.65</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <v>813</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>712498.65</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>3184</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>709314.65</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>707714.65</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>175</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>707539.65</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
+        <v>330</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>707209.65</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
+        <v>200</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>707009.65</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>3666</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>703343.65</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>42890</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8">
+        <v>9747.19</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>693596.46000000008</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7">
+        <v>1169.6600000000001</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>692426.8</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>690026.8</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7">
+        <v>28.32</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>689998.4800000001</v>
+      </c>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>42854</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
+        <v>419.92</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>689578.56</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>42865</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
+        <v>63.97</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>689514.59000000008</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
+        <v>87.94</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>689426.65000000014</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
+        <v>112.36</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>689314.29000000015</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>42850</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7">
+        <v>8465</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>680849.29000000015</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>42893</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>670849.29000000015</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>42895</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>650849.29000000015</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>42895</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7">
+        <v>39000</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>611849.29000000015</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
+        <v>250884</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>360965.29000000015</v>
+      </c>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
+        <v>319789.21000000002</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>41176.080000000133</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
+        <v>49221.96</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>-8045.8799999998664</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>42878</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
+        <v>106</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>-8151.8799999998664</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>42863</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7">
+        <v>753</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>-8904.8799999998664</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>42900</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="6">
+        <v>76661.990000000005</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>67757.110000000132</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="5"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="5"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="5"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="5"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2449,1518 +3889,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>42816</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
-        <f>C2-D2</f>
-        <v>30000</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>42816</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7">
-        <v>39000</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <f>E2+C3-D3</f>
-        <v>69000</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>42816</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
-        <f>E3+C4-D4</f>
-        <v>89000</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>42826</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <f>E4+C5-D5</f>
-        <v>99000</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>42838</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="7">
-        <v>191986.15</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
-        <f>E5+C6-D6</f>
-        <v>290986.15000000002</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>42817</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="7">
-        <v>400000</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <f>E6+C7-D7</f>
-        <v>690986.15</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>42894</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7">
-        <v>64863.5</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <f>E7+C8-D8</f>
-        <v>755849.65</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>42836</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>4032</v>
-      </c>
-      <c r="E9" s="7">
-        <f>E8+C9-D9</f>
-        <v>751817.65</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>42844</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>3700</v>
-      </c>
-      <c r="E10" s="7">
-        <f>E9+C10-D10</f>
-        <v>748117.65</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>42844</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7">
-        <f>E10+C11-D11</f>
-        <v>748017.65</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>42844</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="7">
-        <f>E11+C12-D12</f>
-        <v>718017.65</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>42845</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>3600</v>
-      </c>
-      <c r="E13" s="7">
-        <f>E12+C13-D13</f>
-        <v>714417.65</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>42850</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>1106</v>
-      </c>
-      <c r="E14" s="7">
-        <f>E13+C14-D14</f>
-        <v>713311.65</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>813</v>
-      </c>
-      <c r="E15" s="7">
-        <f>E14+C15-D15</f>
-        <v>712498.65</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>3184</v>
-      </c>
-      <c r="E16" s="7">
-        <f>E15+C16-D16</f>
-        <v>709314.65</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>1600</v>
-      </c>
-      <c r="E17" s="7">
-        <f>E16+C17-D17</f>
-        <v>707714.65</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
-        <v>175</v>
-      </c>
-      <c r="E18" s="7">
-        <f>E17+C18-D18</f>
-        <v>707539.65</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>330</v>
-      </c>
-      <c r="E19" s="7">
-        <f>E18+C19-D19</f>
-        <v>707209.65</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>200</v>
-      </c>
-      <c r="E20" s="7">
-        <f>E19+C20-D20</f>
-        <v>707009.65</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>3666</v>
-      </c>
-      <c r="E21" s="7">
-        <f>E20+C21-D21</f>
-        <v>703343.65</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>42890</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
-        <v>9747.19</v>
-      </c>
-      <c r="E22" s="7">
-        <f>E21+C22-D22</f>
-        <v>693596.46000000008</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
-        <v>1169.6600000000001</v>
-      </c>
-      <c r="E23" s="7">
-        <f>E22+C23-D23</f>
-        <v>692426.8</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7">
-        <v>2400</v>
-      </c>
-      <c r="E24" s="7">
-        <f>E23+C24-D24</f>
-        <v>690026.8</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
-        <v>28.32</v>
-      </c>
-      <c r="E25" s="7">
-        <f>E24+C25-D25</f>
-        <v>689998.4800000001</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>42854</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7">
-        <v>419.92</v>
-      </c>
-      <c r="E26" s="7">
-        <f>E25+C26-D26</f>
-        <v>689578.56</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>42865</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7">
-        <v>63.97</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" ref="E27:E43" si="0">E26+C27-D27</f>
-        <v>689514.59000000008</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7">
-        <v>87.94</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>689426.65000000014</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7">
-        <v>112.36</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>689314.29000000015</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>42850</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7">
-        <v>8465</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>680849.29000000015</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>42893</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7">
-        <v>10000</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>670849.29000000015</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>42895</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7">
-        <v>20000</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>650849.29000000015</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>42895</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7">
-        <v>39000</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>611849.29000000015</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7">
-        <v>250884</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>360965.29000000015</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7">
-        <v>319789.21000000002</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>41176.080000000133</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7">
-        <v>49221.96</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>-8045.8799999998664</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>42878</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7">
-        <v>106</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>-8151.8799999998664</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>42863</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7">
-        <v>753</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>-8904.8799999998664</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7">
-        <v>18649</v>
-      </c>
-      <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>-27553.879999999866</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7">
-        <v>13508</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>-41061.879999999866</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7">
-        <v>3666</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>-44727.879999999866</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>42894</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="6">
-        <v>64863.5</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7">
-        <f t="shared" si="0"/>
-        <v>20135.620000000134</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42900</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6">
-        <v>76661.990000000005</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7">
-        <f t="shared" si="0"/>
-        <v>96797.610000000132</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
 </file>
--- a/code/java-web-demo/src/test/resources/明协公司.xlsx
+++ b/code/java-web-demo/src/test/resources/明协公司.xlsx
@@ -14,17 +14,21 @@
   <sheets>
     <sheet name="现金" sheetId="9" r:id="rId1"/>
     <sheet name="汇总" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总!$A$1:$H$133</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">现金!$A$1:$F$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">现金!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
   <si>
     <t>日期</t>
   </si>
@@ -303,10 +307,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>应收68638.14，实收76661.99</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>收钢材款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -316,6 +316,143 @@
   </si>
   <si>
     <t>30+3.2+30+35+14.16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>许工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢文工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未支付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>借还款</t>
+  </si>
+  <si>
+    <t>借还款</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>营收</t>
+  </si>
+  <si>
+    <t>营收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>营运成本</t>
+  </si>
+  <si>
+    <t>营运成本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营费</t>
+  </si>
+  <si>
+    <t>运营费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税收</t>
+  </si>
+  <si>
+    <t>税收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退给马文8013.85</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>(空白)</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>求和项:收入</t>
+  </si>
+  <si>
+    <t>求和项:支出</t>
+  </si>
+  <si>
+    <t>毛利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营成本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收外债</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯利润</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,14 +600,225 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -481,6 +829,1533 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="CoderDream" refreshedDate="42903.755161111112" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="142">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="现金"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="日期" numFmtId="176">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-03-22T00:00:00" maxDate="2017-06-18T00:00:00"/>
+    </cacheField>
+    <cacheField name="摘要" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="类别" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="借还款"/>
+        <s v="营收"/>
+        <s v="运营费"/>
+        <s v="税收"/>
+        <s v="工资"/>
+        <s v="营运成本"/>
+        <m/>
+        <s v="付地税" u="1"/>
+        <s v="费用" u="1"/>
+        <s v="付国税" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="收入" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10000" maxValue="400000"/>
+    </cacheField>
+    <cacheField name="支出" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="28.32" maxValue="319789.21000000002"/>
+    </cacheField>
+    <cacheField name="账户余额" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-439.87999999986641" maxValue="755849.65"/>
+    </cacheField>
+    <cacheField name="备注" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="142">
+  <r>
+    <d v="2017-03-22T00:00:00"/>
+    <s v="借陈明"/>
+    <x v="0"/>
+    <n v="30000"/>
+    <m/>
+    <n v="30000"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-03-22T00:00:00"/>
+    <s v="借谢协"/>
+    <x v="0"/>
+    <n v="39000"/>
+    <m/>
+    <n v="69000"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-03-22T00:00:00"/>
+    <s v="借许"/>
+    <x v="0"/>
+    <n v="20000"/>
+    <m/>
+    <n v="89000"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-01T00:00:00"/>
+    <s v="借刘总"/>
+    <x v="0"/>
+    <n v="10000"/>
+    <m/>
+    <n v="99000"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-13T00:00:00"/>
+    <s v="收货款"/>
+    <x v="1"/>
+    <n v="191986.15"/>
+    <m/>
+    <n v="290986.15000000002"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-03-23T00:00:00"/>
+    <s v="收货款"/>
+    <x v="1"/>
+    <n v="400000"/>
+    <m/>
+    <n v="690986.15"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-06-08T00:00:00"/>
+    <s v="收6906货款"/>
+    <x v="1"/>
+    <n v="64863.5"/>
+    <m/>
+    <n v="755849.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-11T00:00:00"/>
+    <s v="陈明报运输发票"/>
+    <x v="2"/>
+    <m/>
+    <n v="4032"/>
+    <n v="751817.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="尚坤报油漆发票"/>
+    <x v="2"/>
+    <m/>
+    <n v="3700"/>
+    <n v="748117.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="陈明报其他"/>
+    <x v="2"/>
+    <m/>
+    <n v="100"/>
+    <n v="748017.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="还陈明"/>
+    <x v="0"/>
+    <m/>
+    <n v="30000"/>
+    <n v="718017.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-20T00:00:00"/>
+    <s v="谢协报购手机款"/>
+    <x v="2"/>
+    <m/>
+    <n v="3600"/>
+    <n v="714417.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-25T00:00:00"/>
+    <s v="尚坤报招待费及购报销单"/>
+    <x v="2"/>
+    <m/>
+    <n v="1106"/>
+    <n v="713311.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报刷卡费"/>
+    <x v="2"/>
+    <m/>
+    <n v="813"/>
+    <n v="712498.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报地税款"/>
+    <x v="3"/>
+    <m/>
+    <n v="3184"/>
+    <n v="709314.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报付会计2月3月工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="1600"/>
+    <n v="707714.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报吃饭"/>
+    <x v="2"/>
+    <m/>
+    <n v="175"/>
+    <n v="707539.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报烟"/>
+    <x v="2"/>
+    <m/>
+    <n v="330"/>
+    <n v="707209.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报罚款"/>
+    <x v="2"/>
+    <m/>
+    <n v="200"/>
+    <n v="707009.65"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="陈明报费用"/>
+    <x v="2"/>
+    <m/>
+    <n v="3666"/>
+    <n v="703343.65"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-06-04T00:00:00"/>
+    <s v="付国税"/>
+    <x v="3"/>
+    <m/>
+    <n v="9747.19"/>
+    <n v="693596.46000000008"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="付地税"/>
+    <x v="3"/>
+    <m/>
+    <n v="1169.6600000000001"/>
+    <n v="692426.8"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="付兼职会计公司456月"/>
+    <x v="4"/>
+    <m/>
+    <n v="2400"/>
+    <n v="690026.8"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="转款手续费"/>
+    <x v="2"/>
+    <m/>
+    <n v="28.32"/>
+    <n v="689998.4800000001"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="费用"/>
+    <x v="2"/>
+    <m/>
+    <n v="419.92"/>
+    <n v="689578.56"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-05-10T00:00:00"/>
+    <s v="会计报地税印花税"/>
+    <x v="3"/>
+    <m/>
+    <n v="63.97"/>
+    <n v="689514.59000000008"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="会计报水利建设基金"/>
+    <x v="3"/>
+    <m/>
+    <n v="87.94"/>
+    <n v="689426.65000000014"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="回单及其他费用"/>
+    <x v="2"/>
+    <m/>
+    <n v="112.36"/>
+    <n v="689314.29000000015"/>
+    <s v="30+3.2+30+35+14.16"/>
+  </r>
+  <r>
+    <d v="2017-06-07T00:00:00"/>
+    <s v="还刘总"/>
+    <x v="0"/>
+    <m/>
+    <n v="10000"/>
+    <n v="679314.29000000015"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-06-09T00:00:00"/>
+    <s v="还许"/>
+    <x v="0"/>
+    <m/>
+    <n v="20000"/>
+    <n v="659314.29000000015"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-06-09T00:00:00"/>
+    <s v="还谢协"/>
+    <x v="0"/>
+    <m/>
+    <n v="39000"/>
+    <n v="620314.29000000015"/>
+    <s v="暂时未付"/>
+  </r>
+  <r>
+    <m/>
+    <s v="3月4月付货款（钢材销售款）"/>
+    <x v="5"/>
+    <m/>
+    <n v="250884"/>
+    <n v="369430.29000000015"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="3月4月付钢材款"/>
+    <x v="5"/>
+    <m/>
+    <n v="319789.21000000002"/>
+    <n v="49641.080000000133"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <s v="3月4月付油漆款"/>
+    <x v="5"/>
+    <m/>
+    <n v="49221.96"/>
+    <n v="419.12000000013359"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-05-23T00:00:00"/>
+    <s v="肖坤报购办公用品一批"/>
+    <x v="2"/>
+    <m/>
+    <n v="106"/>
+    <n v="313.12000000013359"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-05-08T00:00:00"/>
+    <s v="肖坤报招待费"/>
+    <x v="2"/>
+    <m/>
+    <n v="753"/>
+    <n v="-439.87999999986641"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2017-06-14T00:00:00"/>
+    <s v="收钢材款"/>
+    <x v="1"/>
+    <n v="68648.14"/>
+    <m/>
+    <n v="68208.260000000126"/>
+    <s v="退给马文8013.85"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="秦工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="5000"/>
+    <n v="63208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="马工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="5000"/>
+    <n v="58208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="谢工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="5000"/>
+    <n v="53208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="陈工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="5000"/>
+    <n v="48208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="许工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="3000"/>
+    <n v="45208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="肖工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="3000"/>
+    <n v="42208.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-06-17T00:00:00"/>
+    <s v="谢文工资"/>
+    <x v="4"/>
+    <m/>
+    <n v="4300"/>
+    <n v="37908.260000000126"/>
+    <s v="暂未支付"/>
+  </r>
+  <r>
+    <d v="2017-04-25T00:00:00"/>
+    <s v="陈明借公司"/>
+    <x v="0"/>
+    <m/>
+    <n v="8465"/>
+    <n v="29443.260000000126"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A2:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="9"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="求和项:收入" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="求和项:支出" fld="4" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="24">
+    <format dxfId="23">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,1450 +2645,1802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>42816</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7">
         <v>30000</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
-        <f>C2-D2</f>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
+        <f>D2-E2</f>
         <v>30000</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>42816</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7">
         <v>39000</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E39" si="0">E2+C3-D3</f>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F46" si="0">F2+D3-E3</f>
         <v>69000</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>42816</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="7">
         <v>20000</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>89000</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>42826</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7">
         <v>10000</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>99000</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>42838</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
         <v>191986.15</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>290986.15000000002</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>42817</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7">
         <v>400000</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>690986.15</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>42894</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="7">
         <v>64863.5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>755849.65</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>42836</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>4032</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>751817.65</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>42844</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>3700</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>748117.65</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>42844</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>100</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>748017.65</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>42844</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
         <v>30000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>718017.65</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>42845</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
         <v>3600</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>714417.65</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>42850</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="C14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>1106</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>713311.65</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>813</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>712498.65</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>3184</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>709314.65</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>1600</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>707714.65</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
         <v>175</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>707539.65</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>330</v>
       </c>
-      <c r="E19" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>707209.65</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>200</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>707009.65</v>
       </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="C21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>3666</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>703343.65</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42890</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
+      <c r="C22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8">
         <v>9747.19</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>693596.46000000008</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7">
+      <c r="C23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7">
         <v>1169.6600000000001</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>692426.8</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7">
+      <c r="C24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7">
         <v>2400</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>690026.8</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7">
+      <c r="C25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7">
         <v>28.32</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>689998.4800000001</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>42854</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7">
+      <c r="C26" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7">
         <v>419.92</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>689578.56</v>
       </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>42865</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7">
+      <c r="C27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7">
         <v>63.97</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>689514.59000000008</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7">
+      <c r="C28" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7">
         <v>87.94</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>689426.65000000014</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7">
+      <c r="C29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7">
         <v>112.36</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>689314.29000000015</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <v>42850</v>
+        <v>42893</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7">
-        <v>8465</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>680849.29000000015</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>679314.29000000015</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>42893</v>
+        <v>42895</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7">
-        <v>10000</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>670849.29000000015</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>659314.29000000015</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>42895</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7">
-        <v>20000</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="7">
+        <v>39000</v>
+      </c>
+      <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>650849.29000000015</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>42895</v>
-      </c>
+        <v>620314.29000000015</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
       <c r="B33" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7">
-        <v>39000</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="7">
+        <v>250884</v>
+      </c>
+      <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>611849.29000000015</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>369430.29000000015</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7">
-        <v>250884</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="7">
+        <v>319789.21000000002</v>
+      </c>
+      <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>360965.29000000015</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49641.080000000133</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7">
-        <v>319789.21000000002</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="7">
+        <v>49221.96</v>
+      </c>
+      <c r="F35" s="7">
         <f t="shared" si="0"/>
-        <v>41176.080000000133</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+        <v>419.12000000013359</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>42878</v>
+      </c>
       <c r="B36" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7">
-        <v>49221.96</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="7">
+        <v>106</v>
+      </c>
+      <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>-8045.8799999998664</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>313.12000000013359</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>42878</v>
+        <v>42863</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7">
-        <v>106</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="7">
+        <v>753</v>
+      </c>
+      <c r="F37" s="7">
         <f t="shared" si="0"/>
-        <v>-8151.8799999998664</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>-439.87999999986641</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>42863</v>
+        <v>42900</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7">
-        <v>753</v>
-      </c>
-      <c r="E38" s="7">
+        <v>68</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6">
+        <v>68648.14</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>-8904.8799999998664</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68208.260000000126</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>42900</v>
+        <v>42903</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="6">
-        <v>76661.990000000005</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F39" s="7">
         <f t="shared" si="0"/>
-        <v>67757.110000000132</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63208.260000000126</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>58208.260000000126</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>53208.260000000126</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>48208.260000000126</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>45208.260000000126</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>42208.260000000126</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>42903</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>37908.260000000126</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>42850</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7">
+        <v>8465</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>29443.260000000126</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="6"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="6"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="6"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="6"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="6"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="6"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="6"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="6"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="6"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="6"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="6"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="6"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="6"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="6"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="6"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="6"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="6"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="6"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="6"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="7"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="6"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="7"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="6"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="7"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="6"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="7"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="6"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="7"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="6"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="6"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="6"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="7"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="6"/>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="7"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="6"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="7"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="6"/>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="7"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="6"/>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="6"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="6"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="6"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="6"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="6"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="6"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="6"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="5"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="5"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="5"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="5"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G46"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3889,4 +6116,163 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15">
+        <v>34300</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="15">
+        <v>99000</v>
+      </c>
+      <c r="C4" s="15">
+        <v>107465</v>
+      </c>
+      <c r="D4" s="12">
+        <f>GETPIVOTDATA("求和项:支出",$A$2,"类别","借还款")-GETPIVOTDATA("求和项:收入",$A$2,"类别","借还款")</f>
+        <v>8465</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15">
+        <v>14252.76</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="15">
+        <v>725497.79</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
+        <v>619895.16999999993</v>
+      </c>
+      <c r="D7" s="12">
+        <f>GETPIVOTDATA("求和项:收入",$A$2,"类别","营收")-GETPIVOTDATA("求和项:支出",$A$2,"类别","营运成本")</f>
+        <v>105602.62000000011</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15">
+        <v>19141.599999999999</v>
+      </c>
+      <c r="D8" s="12">
+        <f>GETPIVOTDATA("求和项:支出",$A$2,"类别","工资")+GETPIVOTDATA("求和项:支出",$A$2,"类别","税收")+GETPIVOTDATA("求和项:支出",$A$2,"类别","运营费")</f>
+        <v>67694.36</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="15">
+        <v>824497.79</v>
+      </c>
+      <c r="C10" s="15">
+        <v>795054.52999999991</v>
+      </c>
+      <c r="D10" s="12">
+        <f>GETPIVOTDATA("求和项:收入",$A$2)-GETPIVOTDATA("求和项:支出",$A$2)</f>
+        <v>29443.260000000126</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
+        <f>D10+D4</f>
+        <v>37908.260000000126</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>